--- a/Summer Project report/Pictures and Tables/Tables.xlsx
+++ b/Summer Project report/Pictures and Tables/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meijiaojiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meijiaojiao/Desktop/Evolution_algorithm/Summer Project report/Pictures and Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5022C2E-82DE-1747-BE66-B0A49C8FD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7073E5-4C5B-F54C-98F7-69D4F55CD0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="2" activeTab="13" xr2:uid="{8D7B6650-FCD1-2C40-A06C-579EB4246E35}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="2" activeTab="14" xr2:uid="{8D7B6650-FCD1-2C40-A06C-579EB4246E35}"/>
   </bookViews>
   <sheets>
     <sheet name="2-12" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="B121" sheetId="20" r:id="rId18"/>
     <sheet name="2-9" sheetId="7" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,6 +46,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -231,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,30 +408,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6CFF071-0574-FA40-B62B-6A3B20020DC8}" name="Table1" displayName="Table1" ref="A1:U24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6CFF071-0574-FA40-B62B-6A3B20020DC8}" name="Table1" displayName="Table1" ref="A1:U24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:U24" xr:uid="{F6CFF071-0574-FA40-B62B-6A3B20020DC8}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{1E5FA3D2-141E-1F44-8A64-2561DD57A35D}" name="Function" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{27577C3D-C5A8-3742-BA37-289E633F15A4}" name="1" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{BCEAE14D-9525-9E4C-82C4-7678F4BDF01F}" name="2" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{663C7292-5D1F-2B4D-AF5E-10C64B75BDAA}" name="3" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{A9091839-7C15-1146-802D-7A944D4E21B6}" name="4" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{B49A9217-01C8-5547-A47C-47E0C5D495E1}" name="5" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{5B4538D3-7920-8943-81AE-EA9622DE677E}" name="6" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{67D3D465-87AB-1C4E-9E9F-149B753931A5}" name="7" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{35FCDE53-2174-3F40-831A-FE7AFE995B9E}" name="8" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{2FA970F9-9AFA-DE49-BD6D-08488CD658E4}" name="9" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{50BBF638-0A50-2143-8E44-306A693A0BEB}" name="10" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{EAD60BF3-D85E-4A4A-87A9-D6E9E20CFE3D}" name="11" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{F6B4C131-E27A-C74F-A7B5-EBB55E6E1D63}" name="12" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{AD67FF6B-88F5-0A49-88BC-07973387D889}" name="13" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{111A2E15-1EDF-BA45-BA63-2DDBF9833AEA}" name="14" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{F6758DE7-BEE6-034B-8F6A-2BBC7B31BEFC}" name="15" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{5388A9A4-0F3E-3347-AE9C-C03BCDD2BA07}" name="16" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{7515CA76-F968-7E4A-8F6B-090B3E695BB8}" name="17" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{71FDDCD2-AA64-FD47-8606-80AADF8CAEA6}" name="18" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{84CFD7D5-6C41-E046-92F9-E324B1053EAD}" name="19" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{2E8933BB-D007-5548-86B2-2F502BB48C94}" name="20" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E5FA3D2-141E-1F44-8A64-2561DD57A35D}" name="Function" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{27577C3D-C5A8-3742-BA37-289E633F15A4}" name="1" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{BCEAE14D-9525-9E4C-82C4-7678F4BDF01F}" name="2" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{663C7292-5D1F-2B4D-AF5E-10C64B75BDAA}" name="3" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{A9091839-7C15-1146-802D-7A944D4E21B6}" name="4" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{B49A9217-01C8-5547-A47C-47E0C5D495E1}" name="5" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{5B4538D3-7920-8943-81AE-EA9622DE677E}" name="6" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{67D3D465-87AB-1C4E-9E9F-149B753931A5}" name="7" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{35FCDE53-2174-3F40-831A-FE7AFE995B9E}" name="8" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{2FA970F9-9AFA-DE49-BD6D-08488CD658E4}" name="9" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{50BBF638-0A50-2143-8E44-306A693A0BEB}" name="10" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{EAD60BF3-D85E-4A4A-87A9-D6E9E20CFE3D}" name="11" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{F6B4C131-E27A-C74F-A7B5-EBB55E6E1D63}" name="12" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{AD67FF6B-88F5-0A49-88BC-07973387D889}" name="13" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{111A2E15-1EDF-BA45-BA63-2DDBF9833AEA}" name="14" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{F6758DE7-BEE6-034B-8F6A-2BBC7B31BEFC}" name="15" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{5388A9A4-0F3E-3347-AE9C-C03BCDD2BA07}" name="16" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{7515CA76-F968-7E4A-8F6B-090B3E695BB8}" name="17" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{71FDDCD2-AA64-FD47-8606-80AADF8CAEA6}" name="18" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{84CFD7D5-6C41-E046-92F9-E324B1053EAD}" name="19" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{2E8933BB-D007-5548-86B2-2F502BB48C94}" name="20" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,9 +740,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -806,7 +807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -871,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -936,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2346,9 +2347,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3942,9 +3943,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5538,9 +5539,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6385,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7130,13 +7131,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6DA03B-B922-7541-83B4-5476440650BB}">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="137" workbookViewId="0">
-      <selection sqref="A1:U24"/>
+    <sheetView topLeftCell="A48" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:U79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7201,7 +7202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7396,7 +7397,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7526,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7851,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7981,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -8371,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -8566,7 +8567,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8631,7 +8632,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -9021,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -9086,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -9411,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -9476,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -9606,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -9866,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -9931,7 +9932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -10126,7 +10127,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -10517,7 +10518,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -10582,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -10712,7 +10713,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -10907,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -11232,7 +11233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -11297,7 +11298,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -11362,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -11427,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -11492,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -11622,7 +11623,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -11847,13 +11848,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E10FB4-958D-B247-8873-56545B743502}">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="114" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:U76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11918,7 +11919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12243,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12308,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12373,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -12438,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -12503,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -12568,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -12633,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -12828,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -12893,7 +12894,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12958,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -13023,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -13088,7 +13089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -13153,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -13478,7 +13479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -13543,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -13608,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -13738,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -13803,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
@@ -13868,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
@@ -13933,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -14063,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
@@ -14128,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -14193,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
@@ -14258,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
@@ -14323,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
@@ -14388,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" s="5" t="s">
         <v>15</v>
       </c>
@@ -14453,7 +14454,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="5" t="s">
         <v>16</v>
       </c>
@@ -14518,7 +14519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" s="5" t="s">
         <v>17</v>
       </c>
@@ -14583,7 +14584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="5" t="s">
         <v>18</v>
       </c>
@@ -14648,7 +14649,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
         <v>19</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
         <v>20</v>
       </c>
@@ -14778,7 +14779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -14908,7 +14909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
         <v>23</v>
       </c>
@@ -14973,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21">
       <c r="A53" s="5" t="s">
         <v>0</v>
       </c>
@@ -15038,7 +15039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21">
       <c r="A54" s="5" t="s">
         <v>1</v>
       </c>
@@ -15104,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
         <v>2</v>
       </c>
@@ -15169,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
@@ -15234,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" s="5" t="s">
         <v>4</v>
       </c>
@@ -15299,7 +15300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21">
       <c r="A58" s="5" t="s">
         <v>5</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" s="5" t="s">
         <v>6</v>
       </c>
@@ -15429,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21">
       <c r="A60" s="5" t="s">
         <v>7</v>
       </c>
@@ -15494,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21">
       <c r="A61" s="5" t="s">
         <v>8</v>
       </c>
@@ -15559,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -15624,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21">
       <c r="A63" s="5" t="s">
         <v>10</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21">
       <c r="A64" s="5" t="s">
         <v>11</v>
       </c>
@@ -15754,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" s="5" t="s">
         <v>12</v>
       </c>
@@ -15819,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
@@ -15884,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" s="5" t="s">
         <v>14</v>
       </c>
@@ -15949,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" s="5" t="s">
         <v>15</v>
       </c>
@@ -16014,7 +16015,7 @@
         <v>-0.39999999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" s="5" t="s">
         <v>16</v>
       </c>
@@ -16079,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70" s="5" t="s">
         <v>17</v>
       </c>
@@ -16144,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71" s="5" t="s">
         <v>18</v>
       </c>
@@ -16209,7 +16210,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72" s="5" t="s">
         <v>19</v>
       </c>
@@ -16274,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="5" t="s">
         <v>20</v>
       </c>
@@ -16339,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21">
       <c r="A74" s="5" t="s">
         <v>21</v>
       </c>
@@ -16404,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
@@ -16469,7 +16470,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76" s="5" t="s">
         <v>23</v>
       </c>
@@ -16564,1573 +16565,1573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879CBC1E-F6AA-544B-9446-1AF241F2828C}">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:U80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.4</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
         <v>0.8</v>
       </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
         <v>0.9</v>
       </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.1</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.7</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.8</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <v>0.9</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>0.9</v>
       </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>0.2</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.3</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.9</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
         <v>0.9</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>0.9</v>
       </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <v>0.2</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>0.1</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.1</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.1</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>0.2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>0.1</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>0.1</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>0.1</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
         <v>0.3</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>0.4</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.6</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.6</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
         <v>0.1</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
         <v>0.5</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>0.7</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>0.7</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>0.6</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>0.6</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <v>0.5</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="2">
         <v>0.5</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="2">
         <v>0.7</v>
       </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
         <v>0.1</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
         <v>0.8</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
         <v>0.9</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
         <v>0.9</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
         <v>0.9</v>
       </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>0.4</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>0.6</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>0.2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0.1</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>0.2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>0.5</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>0.4</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>0.3</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <v>0.5</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <v>0.4</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <v>0.4</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="2">
         <v>0.2</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="2">
         <v>0.5</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="2">
         <v>0.6</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="2">
         <v>0.6</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="2">
         <v>0.4</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="2">
         <v>0.3</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="2">
         <v>0.8</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>0.3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>0.5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>0.4</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0.6</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>0.5</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>0.1</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>0.4</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>0.3</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <v>0.3</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
         <v>0.4</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>0.4</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="2">
         <v>0.4</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="2">
         <v>0.4</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="2">
         <v>0.3</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="2">
         <v>0.2</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="2">
         <v>0.6</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="2">
         <v>0.3</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>0.4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>0.2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.4</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>0.2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0.5</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>0.4</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>0.3</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>0.1</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>0.4</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <v>0.5</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>0.3</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>0.3</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="2">
         <v>0.4</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="2">
         <v>0.6</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="2">
         <v>0.1</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="2">
         <v>0.3</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="2">
         <v>0.4</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="2">
         <v>0.3</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>0.5</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>0.5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.4</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>0.2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0.3</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>0.1</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>0.3</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>0.1</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>0.1</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <v>0.6</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>0.3</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
         <v>0.5</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="2">
         <v>0.5</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="2">
         <v>0.5</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="2">
         <v>0.2</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="2">
         <v>0.4</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="2">
         <v>0.3</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -18195,7 +18196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -18260,7 +18261,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -18325,7 +18326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
@@ -18390,7 +18391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -18455,7 +18456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -18520,7 +18521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -18585,7 +18586,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
@@ -18650,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -18715,7 +18716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
@@ -18780,7 +18781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="5" t="s">
         <v>10</v>
       </c>
@@ -18845,7 +18846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -18910,7 +18911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
@@ -18975,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" s="5" t="s">
         <v>13</v>
       </c>
@@ -19040,7 +19041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
@@ -19105,7 +19106,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" s="5" t="s">
         <v>15</v>
       </c>
@@ -19170,7 +19171,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="5" t="s">
         <v>16</v>
       </c>
@@ -19235,7 +19236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
         <v>17</v>
       </c>
@@ -19300,7 +19301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
         <v>18</v>
       </c>
@@ -19365,7 +19366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
         <v>19</v>
       </c>
@@ -19430,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
         <v>20</v>
       </c>
@@ -19495,7 +19496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
         <v>21</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
         <v>22</v>
       </c>
@@ -19625,7 +19626,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -19690,7 +19691,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" s="5" t="s">
         <v>0</v>
       </c>
@@ -19755,7 +19756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21">
       <c r="A58" s="5" t="s">
         <v>1</v>
       </c>
@@ -19821,7 +19822,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -19886,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -19951,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21">
       <c r="A61" s="5" t="s">
         <v>4</v>
       </c>
@@ -20016,7 +20017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21">
       <c r="A62" s="5" t="s">
         <v>5</v>
       </c>
@@ -20081,7 +20082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21">
       <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
@@ -20146,7 +20147,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21">
       <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
@@ -20211,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
@@ -20276,7 +20277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66" s="5" t="s">
         <v>9</v>
       </c>
@@ -20341,7 +20342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
@@ -20406,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" s="5" t="s">
         <v>11</v>
       </c>
@@ -20471,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" s="5" t="s">
         <v>12</v>
       </c>
@@ -20536,7 +20537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
@@ -20601,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71" s="5" t="s">
         <v>14</v>
       </c>
@@ -20666,7 +20667,7 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72" s="5" t="s">
         <v>15</v>
       </c>
@@ -20731,7 +20732,7 @@
         <v>-0.20000000000000007</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="5" t="s">
         <v>16</v>
       </c>
@@ -20796,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21">
       <c r="A74" s="5" t="s">
         <v>17</v>
       </c>
@@ -20861,7 +20862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" s="5" t="s">
         <v>18</v>
       </c>
@@ -20926,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76" s="5" t="s">
         <v>19</v>
       </c>
@@ -20991,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21">
       <c r="A77" s="5" t="s">
         <v>20</v>
       </c>
@@ -21056,7 +21057,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21">
       <c r="A78" s="5" t="s">
         <v>21</v>
       </c>
@@ -21121,7 +21122,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21">
       <c r="A79" s="5" t="s">
         <v>22</v>
       </c>
@@ -21186,7 +21187,7 @@
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21">
       <c r="A80" s="5" t="s">
         <v>23</v>
       </c>
@@ -21253,7 +21254,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B58:U80">
-    <cfRule type="iconSet" priority="2">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -21262,7 +21263,7 @@
         <cfvo type="percent" val="80"/>
       </iconSet>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -21285,9 +21286,9 @@
       <selection activeCell="A54" sqref="A54:U77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -21352,7 +21353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -21417,7 +21418,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -21482,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -21547,7 +21548,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -21612,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -21677,7 +21678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -21742,7 +21743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -21807,7 +21808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -21872,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -21937,7 +21938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -22002,7 +22003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -22067,7 +22068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -22132,7 +22133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -22197,7 +22198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -22262,7 +22263,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -22327,7 +22328,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -22392,7 +22393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -22457,7 +22458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -22522,7 +22523,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -22587,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -22652,7 +22653,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -22717,7 +22718,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -22782,7 +22783,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -22847,7 +22848,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -22912,7 +22913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -22977,7 +22978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -23042,7 +23043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -23107,7 +23108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -23172,7 +23173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -23237,7 +23238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
@@ -23302,7 +23303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -23367,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -23432,7 +23433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -23497,7 +23498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -23562,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -23627,7 +23628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -23692,7 +23693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -23757,7 +23758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
@@ -23822,7 +23823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="5" t="s">
         <v>15</v>
       </c>
@@ -23887,7 +23888,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" s="5" t="s">
         <v>16</v>
       </c>
@@ -23952,7 +23953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="5" t="s">
         <v>17</v>
       </c>
@@ -24017,7 +24018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
         <v>18</v>
       </c>
@@ -24082,7 +24083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
@@ -24147,7 +24148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
@@ -24212,7 +24213,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
@@ -24277,7 +24278,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -24342,7 +24343,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -24407,7 +24408,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21">
       <c r="A54" s="5" t="s">
         <v>0</v>
       </c>
@@ -24472,7 +24473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
         <v>1</v>
       </c>
@@ -24538,7 +24539,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
         <v>2</v>
       </c>
@@ -24603,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
@@ -24668,7 +24669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
@@ -24733,7 +24734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" s="5" t="s">
         <v>5</v>
       </c>
@@ -24798,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21">
       <c r="A60" s="5" t="s">
         <v>6</v>
       </c>
@@ -24863,7 +24864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21">
       <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
@@ -24928,7 +24929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21">
       <c r="A62" s="5" t="s">
         <v>8</v>
       </c>
@@ -24993,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
@@ -25058,7 +25059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21">
       <c r="A64" s="5" t="s">
         <v>10</v>
       </c>
@@ -25123,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" s="5" t="s">
         <v>11</v>
       </c>
@@ -25188,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66" s="5" t="s">
         <v>12</v>
       </c>
@@ -25253,7 +25254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
@@ -25318,7 +25319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" s="5" t="s">
         <v>14</v>
       </c>
@@ -25383,7 +25384,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" s="5" t="s">
         <v>15</v>
       </c>
@@ -25448,7 +25449,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70" s="5" t="s">
         <v>16</v>
       </c>
@@ -25513,7 +25514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71" s="5" t="s">
         <v>17</v>
       </c>
@@ -25578,7 +25579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72" s="5" t="s">
         <v>18</v>
       </c>
@@ -25643,7 +25644,7 @@
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="5" t="s">
         <v>19</v>
       </c>
@@ -25708,7 +25709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21">
       <c r="A74" s="5" t="s">
         <v>20</v>
       </c>
@@ -25773,7 +25774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" s="5" t="s">
         <v>21</v>
       </c>
@@ -25838,7 +25839,7 @@
         <v>-0.10000000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76" s="5" t="s">
         <v>22</v>
       </c>
@@ -25903,7 +25904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21">
       <c r="A77" s="5" t="s">
         <v>23</v>
       </c>
@@ -25998,13 +25999,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D05681E-2FFD-9146-BCF4-77AED1F0C212}">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="75" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:U78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -26069,7 +26070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -26134,7 +26135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -26199,7 +26200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -26264,7 +26265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -26329,7 +26330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -26394,7 +26395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -26459,7 +26460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -26524,7 +26525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -26589,7 +26590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -26654,7 +26655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -26719,7 +26720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -26784,7 +26785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -26849,7 +26850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -26914,7 +26915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -26979,7 +26980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -27044,7 +27045,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -27109,7 +27110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -27174,7 +27175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -27239,7 +27240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -27304,7 +27305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -27369,7 +27370,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -27434,7 +27435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -27499,7 +27500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -27564,7 +27565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -27629,7 +27630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -27694,7 +27695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -27759,7 +27760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -27824,7 +27825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -27889,7 +27890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -27954,7 +27955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
@@ -28019,7 +28020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -28084,7 +28085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -28149,7 +28150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -28214,7 +28215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -28279,7 +28280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -28344,7 +28345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -28409,7 +28410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -28474,7 +28475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
@@ -28539,7 +28540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="5" t="s">
         <v>15</v>
       </c>
@@ -28604,7 +28605,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" s="5" t="s">
         <v>16</v>
       </c>
@@ -28669,7 +28670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="5" t="s">
         <v>17</v>
       </c>
@@ -28734,7 +28735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
         <v>18</v>
       </c>
@@ -28799,7 +28800,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
@@ -28864,7 +28865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
@@ -28929,7 +28930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
@@ -28994,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -29059,7 +29060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -29124,7 +29125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
         <v>0</v>
       </c>
@@ -29189,7 +29190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
         <v>1</v>
       </c>
@@ -29255,7 +29256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
@@ -29320,7 +29321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21">
       <c r="A58" s="5" t="s">
         <v>3</v>
       </c>
@@ -29385,7 +29386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" s="5" t="s">
         <v>4</v>
       </c>
@@ -29450,7 +29451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21">
       <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
@@ -29515,7 +29516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21">
       <c r="A61" s="5" t="s">
         <v>6</v>
       </c>
@@ -29580,7 +29581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -29645,7 +29646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
@@ -29710,7 +29711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21">
       <c r="A64" s="5" t="s">
         <v>9</v>
       </c>
@@ -29775,7 +29776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
@@ -29840,7 +29841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66" s="5" t="s">
         <v>11</v>
       </c>
@@ -29905,7 +29906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" s="5" t="s">
         <v>12</v>
       </c>
@@ -29970,7 +29971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" s="5" t="s">
         <v>13</v>
       </c>
@@ -30035,7 +30036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" s="5" t="s">
         <v>14</v>
       </c>
@@ -30100,7 +30101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70" s="5" t="s">
         <v>15</v>
       </c>
@@ -30165,7 +30166,7 @@
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71" s="5" t="s">
         <v>16</v>
       </c>
@@ -30230,7 +30231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72" s="5" t="s">
         <v>17</v>
       </c>
@@ -30295,7 +30296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="5" t="s">
         <v>18</v>
       </c>
@@ -30360,7 +30361,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21">
       <c r="A74" s="5" t="s">
         <v>19</v>
       </c>
@@ -30425,7 +30426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" s="5" t="s">
         <v>20</v>
       </c>
@@ -30490,7 +30491,7 @@
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76" s="5" t="s">
         <v>21</v>
       </c>
@@ -30555,7 +30556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21">
       <c r="A77" s="5" t="s">
         <v>22</v>
       </c>
@@ -30620,7 +30621,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21">
       <c r="A78" s="5" t="s">
         <v>23</v>
       </c>
@@ -30715,13 +30716,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD8DB5C-3765-904F-9EC6-B72FA50BB9A1}">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="81" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="81" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:U78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -30786,7 +30787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -30851,7 +30852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -30916,7 +30917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -30981,7 +30982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -31046,7 +31047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -31111,7 +31112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -31176,7 +31177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -31241,7 +31242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -31306,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -31371,7 +31372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -31436,7 +31437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -31501,7 +31502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -31566,7 +31567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -31631,7 +31632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -31696,7 +31697,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -31761,7 +31762,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -31826,7 +31827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -31891,7 +31892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -31956,7 +31957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -32021,7 +32022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -32086,7 +32087,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -32151,7 +32152,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -32216,7 +32217,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -32281,7 +32282,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
@@ -32346,7 +32347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -32411,7 +32412,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -32476,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -32541,7 +32542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -32606,7 +32607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -32671,7 +32672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
@@ -32736,7 +32737,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -32801,7 +32802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -32866,7 +32867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -32931,7 +32932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -32996,7 +32997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -33061,7 +33062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -33126,7 +33127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -33191,7 +33192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
@@ -33256,7 +33257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="5" t="s">
         <v>15</v>
       </c>
@@ -33321,7 +33322,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" s="5" t="s">
         <v>16</v>
       </c>
@@ -33386,7 +33387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="5" t="s">
         <v>17</v>
       </c>
@@ -33451,7 +33452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
         <v>18</v>
       </c>
@@ -33516,7 +33517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
@@ -33581,7 +33582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
@@ -33646,7 +33647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
@@ -33711,7 +33712,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -33776,7 +33777,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -33841,7 +33842,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
         <v>0</v>
       </c>
@@ -33906,7 +33907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
         <v>1</v>
       </c>
@@ -33972,7 +33973,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
@@ -34037,7 +34038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21">
       <c r="A58" s="5" t="s">
         <v>3</v>
       </c>
@@ -34102,7 +34103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" s="5" t="s">
         <v>4</v>
       </c>
@@ -34167,7 +34168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21">
       <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
@@ -34232,7 +34233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21">
       <c r="A61" s="5" t="s">
         <v>6</v>
       </c>
@@ -34297,7 +34298,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -34362,7 +34363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
@@ -34427,7 +34428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21">
       <c r="A64" s="5" t="s">
         <v>9</v>
       </c>
@@ -34492,7 +34493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
@@ -34557,7 +34558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66" s="5" t="s">
         <v>11</v>
       </c>
@@ -34622,7 +34623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" s="5" t="s">
         <v>12</v>
       </c>
@@ -34687,7 +34688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" s="5" t="s">
         <v>13</v>
       </c>
@@ -34752,7 +34753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" s="5" t="s">
         <v>14</v>
       </c>
@@ -34817,7 +34818,7 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70" s="5" t="s">
         <v>15</v>
       </c>
@@ -34882,7 +34883,7 @@
         <v>-0.20000000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71" s="5" t="s">
         <v>16</v>
       </c>
@@ -34947,7 +34948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72" s="5" t="s">
         <v>17</v>
       </c>
@@ -35012,7 +35013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="5" t="s">
         <v>18</v>
       </c>
@@ -35077,7 +35078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21">
       <c r="A74" s="5" t="s">
         <v>19</v>
       </c>
@@ -35142,7 +35143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" s="5" t="s">
         <v>20</v>
       </c>
@@ -35207,7 +35208,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76" s="5" t="s">
         <v>21</v>
       </c>
@@ -35272,7 +35273,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21">
       <c r="A77" s="5" t="s">
         <v>22</v>
       </c>
@@ -35337,7 +35338,7 @@
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21">
       <c r="A78" s="5" t="s">
         <v>23</v>
       </c>
@@ -35436,9 +35437,9 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -35459,7 +35460,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -35480,7 +35481,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -35501,7 +35502,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -35522,7 +35523,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -35543,7 +35544,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -35564,7 +35565,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -35585,7 +35586,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -35606,7 +35607,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -35627,7 +35628,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -35648,7 +35649,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -35669,7 +35670,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -35690,7 +35691,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -35711,7 +35712,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -35732,7 +35733,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -35753,7 +35754,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -35774,7 +35775,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -35795,7 +35796,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -35816,7 +35817,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -35837,7 +35838,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -35858,7 +35859,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -35892,9 +35893,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35959,7 +35960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -36024,7 +36025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -36089,7 +36090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -36154,7 +36155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -36219,7 +36220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -36284,7 +36285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -36349,7 +36350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -36414,7 +36415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -36479,7 +36480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -36544,7 +36545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -36609,7 +36610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -36674,7 +36675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -36739,7 +36740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -36804,7 +36805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -36869,7 +36870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -36934,7 +36935,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -36999,7 +37000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -37064,7 +37065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -37129,7 +37130,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -37194,7 +37195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -37259,7 +37260,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -37324,7 +37325,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -37389,7 +37390,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -37488,9 +37489,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37555,7 +37556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -37620,7 +37621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -37685,7 +37686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -37750,7 +37751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -37815,7 +37816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -37880,7 +37881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -37945,7 +37946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38010,7 +38011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -38075,7 +38076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -38140,7 +38141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -38205,7 +38206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -38270,7 +38271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -38335,7 +38336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -38400,7 +38401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -38465,7 +38466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -38530,7 +38531,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -38595,7 +38596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -38660,7 +38661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -38725,7 +38726,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -38790,7 +38791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -38855,7 +38856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -38920,7 +38921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -38985,7 +38986,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -39084,9 +39085,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -39151,7 +39152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -39216,7 +39217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -39281,7 +39282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -39346,7 +39347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -39411,7 +39412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -39476,7 +39477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -39541,7 +39542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39606,7 +39607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -39671,7 +39672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -39736,7 +39737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -39801,7 +39802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -39866,7 +39867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -39931,7 +39932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -39996,7 +39997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -40061,7 +40062,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -40126,7 +40127,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -40191,7 +40192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -40256,7 +40257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -40321,7 +40322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -40386,7 +40387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -40451,7 +40452,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -40516,7 +40517,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -40581,7 +40582,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -40680,9 +40681,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -40747,7 +40748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -40812,7 +40813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -40877,7 +40878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -40942,7 +40943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -41007,7 +41008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -41072,7 +41073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -41137,7 +41138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -41202,7 +41203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -41267,7 +41268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -41332,7 +41333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -41397,7 +41398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -41462,7 +41463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -41527,7 +41528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -41592,7 +41593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -41657,7 +41658,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -41722,7 +41723,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -41787,7 +41788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -41852,7 +41853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -41917,7 +41918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -41982,7 +41983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -42047,7 +42048,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -42112,7 +42113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -42177,7 +42178,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -42276,9 +42277,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -42343,7 +42344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -42408,7 +42409,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -42473,7 +42474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -42538,7 +42539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -42603,7 +42604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -42668,7 +42669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -42733,7 +42734,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42798,7 +42799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -42863,7 +42864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -42928,7 +42929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -42993,7 +42994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -43058,7 +43059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -43123,7 +43124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -43188,7 +43189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -43253,7 +43254,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -43318,7 +43319,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -43383,7 +43384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -43448,7 +43449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -43513,7 +43514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -43578,7 +43579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -43643,7 +43644,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -43708,7 +43709,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -43773,7 +43774,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -43872,9 +43873,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -43939,7 +43940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -44004,7 +44005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -44069,7 +44070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -44134,7 +44135,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -44199,7 +44200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -44264,7 +44265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -44329,7 +44330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44394,7 +44395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -44459,7 +44460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -44524,7 +44525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -44589,7 +44590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -44654,7 +44655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -44719,7 +44720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -44784,7 +44785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -44849,7 +44850,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -44914,7 +44915,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -44979,7 +44980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -45044,7 +45045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -45109,7 +45110,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -45174,7 +45175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -45239,7 +45240,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -45304,7 +45305,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -45369,7 +45370,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -45468,9 +45469,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -45535,7 +45536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -45600,7 +45601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -45665,7 +45666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -45730,7 +45731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -45795,7 +45796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -45860,7 +45861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -45925,7 +45926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45990,7 +45991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -46055,7 +46056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -46120,7 +46121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -46185,7 +46186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -46250,7 +46251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -46315,7 +46316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -46380,7 +46381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -46445,7 +46446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -46510,7 +46511,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -46575,7 +46576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -46640,7 +46641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -46705,7 +46706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -46770,7 +46771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -46835,7 +46836,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -46900,7 +46901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -46965,7 +46966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -47064,9 +47065,9 @@
       <selection sqref="A1:U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -47131,7 +47132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -47196,7 +47197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -47261,7 +47262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -47326,7 +47327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -47391,7 +47392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -47456,7 +47457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -47521,7 +47522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -47586,7 +47587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -47651,7 +47652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -47716,7 +47717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -47781,7 +47782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -47846,7 +47847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -47911,7 +47912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -47976,7 +47977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -48041,7 +48042,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -48106,7 +48107,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -48171,7 +48172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -48236,7 +48237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -48301,7 +48302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -48366,7 +48367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -48431,7 +48432,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -48496,7 +48497,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -48561,7 +48562,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
